--- a/medicine/Hématologie/CXCL4/CXCL4.xlsx
+++ b/medicine/Hématologie/CXCL4/CXCL4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CXCL4, appelé également facteur plaquettaire 4, est une chimiokine exprimée par les plaquettes sanguines. Son gène est le CXCL4 situé sur le chromosome 4 humain.
 </t>
@@ -511,12 +523,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il interagit avec les intégrines et serait, par ce biais, un inhibiteur de l'angiogenèse tumorale[5]. Il active les promoteurs de l'interleukine 5 et de l'interleukine 13 et régule l'activité des lymphocytes T auxiliaires[6]. Il augmente la prolifération des lymphocytes T régulateurs mais en inhibant leur fonction[7].
-Il jouerait un rôle dans l'évolution de l'athérome[8] et de la fibrose hépatique[9].
-Des taux élevés de cette protéine sont retrouvés dans le sang des patients ayant une sclérodermie et ce taux semble être corrélé avec la gravité de la maladie[10].
-En cas d'administration d'héparine, il peut former un complexe avec cette dernière, donnant parfois naissance à une réaction immunitaire avec production d'anticorps contre ce complexe et responsable de la thrombopénie induite par l'héparine (TIH)[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il interagit avec les intégrines et serait, par ce biais, un inhibiteur de l'angiogenèse tumorale. Il active les promoteurs de l'interleukine 5 et de l'interleukine 13 et régule l'activité des lymphocytes T auxiliaires. Il augmente la prolifération des lymphocytes T régulateurs mais en inhibant leur fonction.
+Il jouerait un rôle dans l'évolution de l'athérome et de la fibrose hépatique.
+Des taux élevés de cette protéine sont retrouvés dans le sang des patients ayant une sclérodermie et ce taux semble être corrélé avec la gravité de la maladie.
+En cas d'administration d'héparine, il peut former un complexe avec cette dernière, donnant parfois naissance à une réaction immunitaire avec production d'anticorps contre ce complexe et responsable de la thrombopénie induite par l'héparine (TIH).
 </t>
         </is>
       </c>
